--- a/src/mystore/data/input.xlsx
+++ b/src/mystore/data/input.xlsx
@@ -5,14 +5,14 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matti\eclipse-workspace\AutomationSeleniumMyStore\src\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matti\eclipse-workspace\AutomationSeleniumMyStore1112\src\mystore\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="10650" windowHeight="7320"/>
   </bookViews>
   <sheets>
-    <sheet name="גיליון1" sheetId="1" r:id="rId1"/>
+    <sheet name="Login" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Password</t>
   </si>
@@ -32,35 +32,29 @@
     <t>Email</t>
   </si>
   <si>
-    <t>limatti400@gmail.com</t>
-  </si>
-  <si>
-    <t>limatti401@gmail.com</t>
-  </si>
-  <si>
-    <t>limatti402@gmail.com</t>
-  </si>
-  <si>
-    <t>limatti403@gmail.com</t>
+    <t>yonit333@gmail.com</t>
+  </si>
+  <si>
+    <t>limi222@gmail.com</t>
+  </si>
+  <si>
+    <t>yonit@gmail.com</t>
+  </si>
+  <si>
+    <t>1#444</t>
+  </si>
+  <si>
+    <t>limi@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="177"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="177"/>
@@ -84,17 +78,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="היפר-קישור" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -375,13 +366,13 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B5"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
@@ -393,7 +384,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2">
@@ -401,7 +392,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3">
@@ -409,29 +400,22 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4">
-        <v>12345</v>
+      <c r="B4" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>5</v>
+      <c r="A5" t="s">
+        <v>6</v>
       </c>
       <c r="B5">
-        <v>12345</v>
+        <v>123456878</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="A3:A5" r:id="rId2" display="limatti400@gmail.com"/>
-    <hyperlink ref="A3" r:id="rId3"/>
-    <hyperlink ref="A4" r:id="rId4"/>
-    <hyperlink ref="A5" r:id="rId5"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>